--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1398.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1398.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.495346952443639</v>
+        <v>1.18588399887085</v>
       </c>
       <c r="B1">
-        <v>2.460654326762704</v>
+        <v>2.115474939346313</v>
       </c>
       <c r="C1">
-        <v>2.861403933518238</v>
+        <v>6.472019672393799</v>
       </c>
       <c r="D1">
-        <v>3.301578333175255</v>
+        <v>2.305414915084839</v>
       </c>
       <c r="E1">
-        <v>1.643055090257812</v>
+        <v>1.195563793182373</v>
       </c>
     </row>
   </sheetData>
